--- a/data/trans_orig/P14_n_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14_n_R-Provincia-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5910396896370315</v>
+        <v>0.5882125395982623</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8150029421659161</v>
+        <v>0.8123713059060079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8765518186248308</v>
+        <v>0.9005592491808194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9440786556600421</v>
+        <v>0.9478301473411116</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8933688352926251</v>
+        <v>0.8827993655218841</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.420622466657131</v>
+        <v>1.421230578245532</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.634494823029825</v>
+        <v>1.655840405621233</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.160062817069711</v>
+        <v>1.156659978041024</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7903075948890784</v>
+        <v>0.7942062213569039</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.157544010580296</v>
+        <v>1.161160865136355</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.321973165550277</v>
+        <v>1.314567618861519</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.095184797866442</v>
+        <v>1.088693882244634</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8995956018868566</v>
+        <v>0.8850496180940124</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.178836749154166</v>
+        <v>1.170696586088078</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.353576650475475</v>
+        <v>1.385425202018182</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.248661770909006</v>
+        <v>1.252312978071539</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.281970485337846</v>
+        <v>1.283398042636563</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.890148877149912</v>
+        <v>1.912437806398023</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.194671741666567</v>
+        <v>2.220317595835802</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.436270110876259</v>
+        <v>1.415735442164039</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.043297790482201</v>
+        <v>1.034403801445539</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1.449668120480001</v>
+        <v>1.465069168589442</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.690916418847054</v>
+        <v>1.685370226663281</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1.28780682461562</v>
+        <v>1.290013298353819</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>1.384347613663934</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>1.977927022645721</v>
+        <v>1.977927022645722</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>1.319374692145761</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7228311330827218</v>
+        <v>0.7287586597617243</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7788385897322075</v>
+        <v>0.7872963372205014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7181286979044421</v>
+        <v>0.718839009280299</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.074494266906305</v>
+        <v>1.090432453968557</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.620965098968962</v>
+        <v>1.621646970789824</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.407307448527648</v>
+        <v>1.431496410535652</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.229221908983149</v>
+        <v>1.231193524625021</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.769989825298047</v>
+        <v>1.795153334737781</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.206778701950961</v>
+        <v>1.210849750851157</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.149343045934561</v>
+        <v>1.152663985993778</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.018283810683772</v>
+        <v>1.009778936440112</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.482555943471588</v>
+        <v>1.488843857622393</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9832221253567476</v>
+        <v>0.9774015341257529</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.078948885772827</v>
+        <v>1.095551816229899</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9497416796268993</v>
+        <v>0.9405370548263743</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.441483048324564</v>
+        <v>1.478862730541728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.991025780200827</v>
+        <v>1.995211678605721</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1.832501376561285</v>
+        <v>1.82819696392011</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.552332726535549</v>
+        <v>1.553852976754811</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.179590613623141</v>
+        <v>2.186924205050215</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.435096674481024</v>
+        <v>1.441347470994498</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1.396178769756625</v>
+        <v>1.408410297035948</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.225254466520684</v>
+        <v>1.212641686241522</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>1.751219652740468</v>
+        <v>1.764093128751655</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.544213235937133</v>
+        <v>0.5443281916051199</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8573204718673232</v>
+        <v>0.8329245994384041</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.690649573425799</v>
+        <v>0.7052349689534074</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.556419014883108</v>
+        <v>1.57080811601171</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.021284617200674</v>
+        <v>1.024441843170758</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.349945743271815</v>
+        <v>1.331144995665572</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.160375699733728</v>
+        <v>1.154081032589855</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.129920415620958</v>
+        <v>2.131019841112598</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8173027428341324</v>
+        <v>0.8228765439631792</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.147458954845868</v>
+        <v>1.141614051402383</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9844941370254308</v>
+        <v>0.9708774152838476</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.938614816514141</v>
+        <v>1.918445235904496</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.785671436201286</v>
+        <v>0.7782692386408107</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.176962907951272</v>
+        <v>1.15652356491712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.971022833583745</v>
+        <v>0.9628946930904461</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.06780103296958</v>
+        <v>2.083714625825057</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.316906746842917</v>
+        <v>1.31415185274973</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.766301073830521</v>
+        <v>1.75979429340366</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.579937205741314</v>
+        <v>1.566642881281404</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.626843242792634</v>
+        <v>2.601433927261139</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.006194032817339</v>
+        <v>1.011887073532713</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1.411333291575856</v>
+        <v>1.406295661766779</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1.231029121220665</v>
+        <v>1.225282885360276</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2.280731449123888</v>
+        <v>2.264395922864302</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>1.1085999793951</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.413123820167763</v>
+        <v>1.413123820167762</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>1.193799846792513</v>
@@ -1101,7 +1101,7 @@
         <v>1.480907144093969</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>1.771694506147121</v>
+        <v>1.77169450614712</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6803323731973179</v>
+        <v>0.6842787687943203</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8102043174194317</v>
+        <v>0.822044242958922</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9509386546117631</v>
+        <v>0.9483365259079725</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.194328207269237</v>
+        <v>1.18330359495843</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.046281356588197</v>
+        <v>1.048591901963017</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.881060216514364</v>
+        <v>1.851325958931741</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.593838025338973</v>
+        <v>1.621316276827464</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.891254403145958</v>
+        <v>1.907897368407074</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9096289502737777</v>
+        <v>0.9086525453265931</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.377247253795022</v>
+        <v>1.385062480855052</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.338666884941642</v>
+        <v>1.345794688023624</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.61360525630237</v>
+        <v>1.609532531256504</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9480365932201121</v>
+        <v>0.9546035299789968</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.125034616309903</v>
+        <v>1.124466654607337</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.29135974219975</v>
+        <v>1.280545998315841</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.658013775116211</v>
+        <v>1.673719792637928</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.351808950022733</v>
+        <v>1.359130224531528</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2.443565909475907</v>
+        <v>2.428495957102298</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.076224783177163</v>
+        <v>2.110063217358246</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.278919842939776</v>
+        <v>2.299304135033716</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.105529925232759</v>
+        <v>1.099839880161797</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.729746770892569</v>
+        <v>1.739030141999633</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.636436356011345</v>
+        <v>1.63461224415729</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1.917235950280254</v>
+        <v>1.938455533771576</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>1.762927934027958</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>2.349818682739665</v>
+        <v>2.349818682739664</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>1.017873180515421</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5744741748523416</v>
+        <v>0.5767726088187527</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.02156013964144</v>
+        <v>1.019612960199189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7535770834847094</v>
+        <v>0.759550386741627</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.131427924934866</v>
+        <v>1.132362887938493</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.07101135976891</v>
+        <v>1.063118778051761</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.307972706844475</v>
+        <v>2.313639544641482</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.478620337480958</v>
+        <v>1.468664020263677</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.115962783881144</v>
+        <v>2.106993285348411</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8814765638661014</v>
+        <v>0.8813162584965452</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.743866277406039</v>
+        <v>1.760285848380961</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.17948848087066</v>
+        <v>1.179771484061173</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.713169195152997</v>
+        <v>1.714848975119237</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8859026748679025</v>
+        <v>0.897449975172962</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.63022479379514</v>
+        <v>1.632570362090574</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.132843958088843</v>
+        <v>1.14085634914663</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.565346709667944</v>
+        <v>1.57331281213635</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.596032200898882</v>
+        <v>1.56223837786903</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.063064421302149</v>
+        <v>3.075931689784968</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.111763493178225</v>
+        <v>2.115798278318906</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.591144757890347</v>
+        <v>2.606710129704906</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.202712453341753</v>
+        <v>1.193106107932375</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2.22043453952239</v>
+        <v>2.240777399518306</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.551601671835774</v>
+        <v>1.569315043904217</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>2.04394431971258</v>
+        <v>2.038711561840219</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>1.654762720466744</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>2.967607659921737</v>
+        <v>2.967607659921736</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>1.005018094016883</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5836454356578679</v>
+        <v>0.5898013590640915</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.043785910589399</v>
+        <v>1.053346863414394</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8156611726649381</v>
+        <v>0.8283919676861226</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.015849485148687</v>
+        <v>2.015316152708089</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.14330176265971</v>
+        <v>1.128806138574988</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.573020265530539</v>
+        <v>1.564552380990798</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.371109089496053</v>
+        <v>1.375709590230782</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.666251790761616</v>
+        <v>2.686604635676066</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9014982688343047</v>
+        <v>0.8959857800394683</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1.357812687353904</v>
+        <v>1.371279679807221</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.157870316701465</v>
+        <v>1.166150075614647</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>2.42294044655861</v>
+        <v>2.419334016694464</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8200425564708729</v>
+        <v>0.8365824464257172</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.418327934257958</v>
+        <v>1.456872259093198</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.27337708154288</v>
+        <v>1.248164593703939</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.6104421334574</v>
+        <v>2.605183784691536</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>1.499118107826716</v>
+        <v>1.498079422849652</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>2.014005484353646</v>
+        <v>1.974494046104327</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1.982757960459611</v>
+        <v>2.026519074480785</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>3.298368400989968</v>
+        <v>3.283339575194759</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>1.124230650735067</v>
+        <v>1.113707977624023</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1.659502518060028</v>
+        <v>1.651199643481223</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1.555956807552971</v>
+        <v>1.582775159940876</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>2.833311563863976</v>
+        <v>2.854528537317734</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>1.312399419942225</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>2.361944700637457</v>
+        <v>2.361944700637458</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.696721258204315</v>
+        <v>0.7037416249801702</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9443267762474596</v>
+        <v>0.9445693870805517</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8146956073570183</v>
+        <v>0.8190850345779074</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.537408626015978</v>
+        <v>1.530954298385961</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.068103979109221</v>
+        <v>1.082195945658503</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.539286777733611</v>
+        <v>1.527784262056622</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.460880263213429</v>
+        <v>1.463563725406035</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.806540368388014</v>
+        <v>2.818828866419222</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9253126851468585</v>
+        <v>0.9168202790848663</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1.277485988508844</v>
+        <v>1.276291904764594</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1.185862652625609</v>
+        <v>1.183243066689586</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>2.236322792701022</v>
+        <v>2.222421801888124</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9276786438312292</v>
+        <v>0.9243576373582628</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.19426949647233</v>
+        <v>1.192053027751984</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.100365252068973</v>
+        <v>1.10689406010149</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.859114016263871</v>
+        <v>1.857508939049078</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.332499283616176</v>
+        <v>1.343478960532987</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.874273015260114</v>
+        <v>1.850443074185639</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.859507376480476</v>
+        <v>1.86128014869695</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.195936299640176</v>
+        <v>3.19698395972008</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.091032301730242</v>
+        <v>1.100999727359559</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1.486395778372292</v>
+        <v>1.499454777556423</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1.447402939031676</v>
+        <v>1.443128199137214</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>2.512632234352321</v>
+        <v>2.484290061271892</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.052145066986664</v>
+        <v>1.072490977601313</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.684003267204401</v>
+        <v>0.6798319602974244</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8886324046635593</v>
+        <v>0.886119430022802</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.002025348446155</v>
+        <v>1.001941170611339</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1.42507774226684</v>
+        <v>1.442802346797746</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1.198424568161812</v>
+        <v>1.175064371839316</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>1.469601990694556</v>
+        <v>1.496370676554303</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>1.593690271001525</v>
+        <v>1.598174875627628</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>1.301491153393186</v>
+        <v>1.299381324849863</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.9740363850858403</v>
+        <v>0.9777769874867059</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1.234423464264642</v>
+        <v>1.233713750559584</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>1.338585792380512</v>
+        <v>1.33237147136929</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.343248122343438</v>
+        <v>1.369645947272408</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9004550538480429</v>
+        <v>0.9028830484956558</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.10756143694911</v>
+        <v>1.104844942287509</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.247428412333643</v>
+        <v>1.239674762247643</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>1.725976145387783</v>
+        <v>1.73955490950503</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1.488414703662966</v>
+        <v>1.492216761582722</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>1.855425582922072</v>
+        <v>1.86073209542138</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>1.88315735698245</v>
+        <v>1.894139214499712</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>1.507982871924518</v>
+        <v>1.507393999213168</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1.168645435525931</v>
+        <v>1.177216267287423</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1.451971492176046</v>
+        <v>1.448075351923212</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>1.534778065113737</v>
+        <v>1.533220726925407</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8154710808589435</v>
+        <v>0.8169619372217753</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.928116559507813</v>
+        <v>0.9261539204595446</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9058568334793917</v>
+        <v>0.9125085671459522</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.38328108090314</v>
+        <v>1.379854834197529</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.310185056608782</v>
+        <v>1.315333178170253</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.617632527800579</v>
+        <v>1.61682378513007</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.557661439787535</v>
+        <v>1.559219084973668</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.144169097885172</v>
+        <v>2.144001732438137</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.084651051824812</v>
+        <v>1.086004489272541</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1.289951673475743</v>
+        <v>1.296069145519523</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1.254847967492914</v>
+        <v>1.25577968788326</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>1.792498172601398</v>
+        <v>1.788752147479864</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9181440564543097</v>
+        <v>0.9178425893586184</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.036054058975726</v>
+        <v>1.035456283231111</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.016825739945014</v>
+        <v>1.017414521114036</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.518346191724776</v>
+        <v>1.51421483628804</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.436177542208843</v>
+        <v>1.440616378031952</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.767474011628159</v>
+        <v>1.76749332868743</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.720838276182268</v>
+        <v>1.71883320145004</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.290201701946234</v>
+        <v>2.293390463028812</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.166659859022462</v>
+        <v>1.167632043827288</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1.38863673486727</v>
+        <v>1.390189785740953</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1.355777177301061</v>
+        <v>1.355468256521629</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>1.895336809119187</v>
+        <v>1.890924554610246</v>
       </c>
     </row>
     <row r="31">
